--- a/nt23-3f5.xlsx
+++ b/nt23-3f5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agada\Desktop\Excel_gyak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agada\Desktop\GitHub\EXCELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5E2C7B-039F-498B-AF00-327AAD65AF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C381D7-82E2-4C3E-82BC-AF452230CA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adatok" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -538,9 +538,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0\ \F\ő;\-#,##0\ &quot;Ft&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00\ \U\S\D;\-#,##0\ &quot;Ft&quot;"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0\ \F\ő;\-#,##0\ &quot;Ft&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00\ \U\S\D;\-#,##0\ &quot;Ft&quot;"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -607,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -630,6 +630,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -638,12 +647,6 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -656,14 +659,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -673,9 +676,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -683,8 +683,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -1053,7 +1064,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DBC42BB-0629-41A1-9114-37BACEFCB6A8}" name="Kimutatás1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Értékek" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DBC42BB-0629-41A1-9114-37BACEFCB6A8}" name="Kimutatás1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Értékek" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P5:Q13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -1423,11 +1434,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,66 +1458,66 @@
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>647500</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>32200000</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>20444</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
       <c r="N2" t="str">
         <f>IF(E2&lt;VLOOKUP($J$6,B$2:E$52,4,0),G2,"")</f>
         <v/>
@@ -1521,34 +1532,34 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>86600</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>9700000</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>74145</v>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="I3" s="20" t="str">
         <f>IF((SUMIF(C2:C50,C3,F2:F52)/SUMIF(C2:C50,C3,G2:G52))=(SUMIF(C2:C50,C9,F2:F52)/SUMIF(C2:C50,C9,G2:G52)),"Egyenlő",IF(SUMIF(C2:C50,C3,F2:F52)/SUMIF(C2:C50,C3,G2:G52)&gt;(SUMIF(C2:C50,C9,F2:F52)/SUMIF(C2:C50,C9,G2:G52)),CONCATENATE(LEFT(C3,9),"-Ázsiában a nagyobb"),CONCATENATE(LEFT(C9,5),"-Ázsiában a nagyobb")))</f>
         <v>Délnyugat-Ázsiában a nagyobb</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
       <c r="N3">
         <f>IF(E3&lt;VLOOKUP($J$6,B$2:E$52,4,0),G3,"")</f>
         <v>74145</v>
@@ -1563,29 +1574,29 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>711</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>1400000</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>33862</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N3:N52" si="0">IF(E4&lt;VLOOKUP($J$6,B$2:E$52,4,0),G4,"")</f>
+        <f t="shared" ref="N4:N52" si="0">IF(E4&lt;VLOOKUP($J$6,B$2:E$52,4,0),G4,"")</f>
         <v>33862</v>
       </c>
       <c r="O4">
@@ -1598,33 +1609,33 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>144000</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>160400000</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>183824</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1639,34 +1650,34 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>47000</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>800000</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>1983</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="3"/>
       <c r="N6">
         <f t="shared" si="0"/>
         <v>1983</v>
@@ -1681,31 +1692,31 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>5770</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>400000</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>17104</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <f>IF(ISNUMBER(MATCH(J6,$B$2:$B$52,0)),AVERAGE(N2:N52),"Nincs ilyen")</f>
         <v>132705.64705882352</v>
       </c>
@@ -1723,26 +1734,30 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>9251</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>775927</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>23263</v>
+      </c>
+      <c r="J8" s="1">
+        <f>AVERAGEIFS(G2:G52,E2:E52,"&lt;"&amp;VLOOKUP(J6,B2:E52,4,0))</f>
+        <v>132705.64705882352</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -1758,25 +1773,25 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>99392</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>50700000</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>1410383</v>
       </c>
       <c r="N9" t="str">
@@ -1793,25 +1808,25 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>83600</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>9600000</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>399451</v>
       </c>
       <c r="N10">
@@ -1828,25 +1843,25 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>60000</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>1300000</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="O11">
@@ -1859,27 +1874,29 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>122762</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>25000000</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="N12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1894,27 +1911,29 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>300000</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <v>103000000</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>284618</v>
       </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="N13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1929,27 +1948,29 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>69700</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <v>3800000</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="O14">
         <f>IF(G14&gt;Régiónként!B$1,E14,"")</f>
         <v>69700</v>
@@ -1960,27 +1981,29 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>3287590</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>1314100000</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>2051228</v>
       </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="N15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1995,25 +2018,25 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>1912988</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>255700000</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>888648</v>
       </c>
       <c r="N16" t="str">
@@ -2030,25 +2053,25 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>437072</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <v>37100000</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>223508</v>
       </c>
       <c r="N17" t="str">
@@ -2065,25 +2088,25 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>1648195</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>78500000</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <v>416490</v>
       </c>
       <c r="N18" t="str">
@@ -2100,25 +2123,25 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>22380</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <v>8400000</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <v>305673</v>
       </c>
       <c r="N19">
@@ -2135,25 +2158,25 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>377835</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="8">
         <v>126900000</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="5">
         <v>4602367</v>
       </c>
       <c r="N20" t="str">
@@ -2170,25 +2193,25 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>527970</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <v>26700000</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>43229</v>
       </c>
       <c r="N21" t="str">
@@ -2205,25 +2228,25 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>89342</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <v>8100000</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>35878</v>
       </c>
       <c r="N22">
@@ -2240,25 +2263,25 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>181040</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="8">
         <v>15400000</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>16551</v>
       </c>
       <c r="N23" t="str">
@@ -2275,25 +2298,25 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>11437</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>2400000</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>210109</v>
       </c>
       <c r="N24">
@@ -2310,25 +2333,25 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>2717300</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <v>17500000</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <v>216036</v>
       </c>
       <c r="N25" t="str">
@@ -2345,25 +2368,25 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>15007</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <v>1200000</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>4970</v>
       </c>
       <c r="N26">
@@ -2380,25 +2403,25 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>9572419</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <v>1380000000</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <v>10356508</v>
       </c>
       <c r="N27" t="str">
@@ -2415,25 +2438,25 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>198500</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="8">
         <v>6000000</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="5">
         <v>7402</v>
       </c>
       <c r="N28" t="str">
@@ -2450,25 +2473,25 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>17820</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="8">
         <v>3800000</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="5">
         <v>172608</v>
       </c>
       <c r="N29">
@@ -2485,25 +2508,25 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>236800</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <v>6900000</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="5">
         <v>11681</v>
       </c>
       <c r="N30" t="str">
@@ -2520,25 +2543,25 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>10452</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="8">
         <v>6200000</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="5">
         <v>50028</v>
       </c>
       <c r="N31">
@@ -2555,25 +2578,25 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>329750</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="8">
         <v>30800000</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="5">
         <v>338108</v>
       </c>
       <c r="N32" t="str">
@@ -2590,25 +2613,25 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>298</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="8">
         <v>300000</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="6">
         <v>2885</v>
       </c>
       <c r="N33">
@@ -2625,25 +2648,25 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>676600</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="8">
         <v>52100000</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="5">
         <v>63135</v>
       </c>
       <c r="N34" t="str">
@@ -2660,25 +2683,25 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>1565500</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="8">
         <v>3000000</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="5">
         <v>12037</v>
       </c>
       <c r="N35" t="str">
@@ -2695,25 +2718,25 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>147181</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="8">
         <v>28000000</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="5">
         <v>19761</v>
       </c>
       <c r="N36" t="str">
@@ -2730,25 +2753,25 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>309500</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="8">
         <v>4200000</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="5">
         <v>77779</v>
       </c>
       <c r="N37" t="str">
@@ -2765,25 +2788,25 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>13122850</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="8">
         <v>38000000</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="N38" t="str">
@@ -2800,25 +2823,25 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="5">
         <v>29800</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="8">
         <v>3000000</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="5">
         <v>11644</v>
       </c>
       <c r="N39">
@@ -2835,25 +2858,25 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>803940</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="8">
         <v>199000000</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="5">
         <v>246849</v>
       </c>
       <c r="N40" t="str">
@@ -2870,25 +2893,25 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <v>6220</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="8">
         <v>4500000</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="5" t="s">
         <v>39</v>
       </c>
       <c r="O41">
@@ -2901,25 +2924,25 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>65610</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="8">
         <v>20900000</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="5">
         <v>74924</v>
       </c>
       <c r="N42">
@@ -2936,25 +2959,25 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="5">
         <v>2240000</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="8">
         <v>31600000</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="5">
         <v>746248</v>
       </c>
       <c r="N43" t="str">
@@ -2971,25 +2994,25 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="5">
         <v>682</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="8">
         <v>5500000</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="5">
         <v>307872</v>
       </c>
       <c r="N44">
@@ -3006,25 +3029,25 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="5">
         <v>185180</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="8">
         <v>17100000</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="5" t="s">
         <v>39</v>
       </c>
       <c r="N45" t="str">
@@ -3041,25 +3064,25 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="5">
         <v>143100</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="8">
         <v>8500000</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="5">
         <v>9242</v>
       </c>
       <c r="N46" t="str">
@@ -3076,25 +3099,25 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="5">
         <v>35980</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="8">
         <v>23500000</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="5">
         <v>529597</v>
       </c>
       <c r="N47">
@@ -3111,25 +3134,25 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="5">
         <v>513115</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="8">
         <v>65100000</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="5">
         <v>404824</v>
       </c>
       <c r="N48" t="str">
@@ -3146,25 +3169,25 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="5">
         <v>779452</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="8">
         <v>67000000</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="5" t="s">
         <v>39</v>
       </c>
       <c r="N49" t="str">
@@ -3181,25 +3204,25 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="5">
         <v>488100</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="8">
         <v>5400000</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="5">
         <v>47932</v>
       </c>
       <c r="N50" t="str">
@@ -3216,25 +3239,25 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="5">
         <v>447400</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="8">
         <v>31300000</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="5">
         <v>62613</v>
       </c>
       <c r="N51" t="str">
@@ -3251,25 +3274,25 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="5">
         <v>331690</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="8">
         <v>91700000</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="5">
         <v>185897</v>
       </c>
       <c r="N52" t="str">
@@ -3307,10 +3330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7FC94A-39BC-4DAF-8D7E-1369FB6D0E29}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3326,36 +3349,36 @@
       <c r="A1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="18">
         <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
@@ -3378,7 +3401,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1">
@@ -3393,7 +3416,7 @@
         <f t="shared" ref="D5:D9" si="0">VLOOKUP(A5,P:Q,2,0)</f>
         <v>11</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="16" t="s">
         <v>160</v>
       </c>
       <c r="Q5" t="s">
@@ -3401,7 +3424,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1">
@@ -3416,15 +3439,15 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="1">
@@ -3439,15 +3462,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="1">
@@ -3462,15 +3485,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="1">
@@ -3485,41 +3508,92 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P10" s="20" t="s">
+      <c r="B10" s="22">
+        <f>AVERAGEIFS(Adatok!E2:E52,Adatok!C2:C52,Régiónként!A4,Adatok!G2:G52,"&gt;"&amp;Régiónként!B1)</f>
+        <v>849303.5</v>
+      </c>
+      <c r="C10" s="22">
+        <f>AVERAGEIFS(Adatok!F2:F52,Adatok!C2:C52,Régiónként!A4,Adatok!G2:G52,"&gt;"&amp;Régiónként!B1)</f>
+        <v>292433333.33333331</v>
+      </c>
+      <c r="P10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P11" s="20" t="s">
+      <c r="B11" s="1">
+        <f>AVERAGEIFS(Adatok!E2:E52,Adatok!C2:C52,Régiónként!A5,Adatok!G2:G52,"&gt;"&amp;Régiónként!B1)</f>
+        <v>448843.5</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGEIFS(Adatok!F2:F52,Adatok!C2:C52,Régiónként!A5,Adatok!G2:G52,"&gt;"&amp;Régiónként!B1)</f>
+        <v>62660000</v>
+      </c>
+      <c r="P11" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P12" s="20" t="s">
+      <c r="B12" s="1">
+        <f>AVERAGEIFS(Adatok!E2:E52,Adatok!C2:C52,Régiónként!A6,Adatok!G2:G52,"&gt;"&amp;Régiónként!B1)</f>
+        <v>368275.33333333331</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGEIFS(Adatok!F2:F52,Adatok!C2:C52,Régiónként!A6,Adatok!G2:G52,"&gt;"&amp;Régiónként!B1)</f>
+        <v>15431728.466666667</v>
+      </c>
+      <c r="P12" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P13" s="20" t="s">
+      <c r="B13" s="1" t="str">
+        <f>IFERROR(AVERAGEIFS(Adatok!E2:E52,Adatok!C2:C52,Régiónként!A7,Adatok!G2:G52,"&gt;"&amp;Régiónként!B1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>IFERROR(AVERAGEIFS(Adatok!F2:F52,Adatok!C2:C52,Régiónként!A7,Adatok!G2:G52,"&gt;"&amp;Régiónként!B1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="P13" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13">
         <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f>IFERROR(AVERAGEIFS(Adatok!E2:E52,Adatok!C2:C52,Régiónként!A8,Adatok!G2:G52,"&gt;"&amp;Régiónként!B1),"-")</f>
+        <v>2330225.2000000002</v>
+      </c>
+      <c r="C14" s="1">
+        <f>IFERROR(AVERAGEIFS(Adatok!F2:F52,Adatok!C2:C52,Régiónként!A8,Adatok!G2:G52,"&gt;"&amp;Régiónként!B1),"-")</f>
+        <v>316820000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <f>IFERROR(AVERAGEIFS(Adatok!E2:E52,Adatok!C2:C52,Régiónként!A9,Adatok!G2:G52,"&gt;"&amp;Régiónként!B1),"-")</f>
+        <v>1217600</v>
+      </c>
+      <c r="C15" s="1">
+        <f>IFERROR(AVERAGEIFS(Adatok!F2:F52,Adatok!C2:C52,Régiónként!A9,Adatok!G2:G52,"&gt;"&amp;Régiónként!B1),"-")</f>
+        <v>18066666.666666668</v>
       </c>
     </row>
   </sheetData>
